--- a/input_output/saved_results/bed_ward_tuning.xlsx
+++ b/input_output/saved_results/bed_ward_tuning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oyvindasplin/Documents/Indok/NTNU/Optimering/MasterV22/master2022/input_output/saved_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9EDC41-BAC5-9249-9AC2-14311662F562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F73B36-19AF-EF48-B65B-21678F73E589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="1260" windowWidth="38400" windowHeight="23540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model_Run" sheetId="1" r:id="rId1"/>
@@ -123,13 +123,13 @@
     <t>EV utilization</t>
   </si>
   <si>
-    <t>76 UR-a</t>
-  </si>
-  <si>
     <t>9 groups:</t>
   </si>
   <si>
     <t>5 groups:</t>
+  </si>
+  <si>
+    <t>-76 UR-a</t>
   </si>
 </sst>
 </file>
@@ -14580,8 +14580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E18FAD3-63C9-3240-883F-A71C8E0B45D5}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14773,7 +14773,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -14954,7 +14954,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -14997,7 +14997,7 @@
         <v>20.200000000000003</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
